--- a/05. Pruebas/MESAS.xlsx
+++ b/05. Pruebas/MESAS.xlsx
@@ -1668,7 +1668,7 @@
     <xf numFmtId="165" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1709,9 +1709,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="1" fillId="2" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1754,6 +1751,12 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Euro" xfId="1"/>
@@ -2059,8 +2062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J167"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A150" sqref="A150:A164"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2107,13 +2110,13 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="26">
+      <c r="A3" s="25">
         <v>46</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="20" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="11" t="s">
@@ -2124,7 +2127,7 @@
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="4">
+      <c r="H3" s="32">
         <v>43033</v>
       </c>
       <c r="I3" s="4"/>
@@ -2133,13 +2136,13 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="25.5">
-      <c r="A4" s="26">
+      <c r="A4" s="25">
         <v>46</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="20" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -2154,7 +2157,7 @@
       <c r="G4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="32">
         <v>43033</v>
       </c>
       <c r="I4" s="4"/>
@@ -2163,13 +2166,13 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="25.5">
-      <c r="A5" s="26">
+      <c r="A5" s="25">
         <v>46</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="20" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -2182,7 +2185,7 @@
         <v>19</v>
       </c>
       <c r="G5" s="6"/>
-      <c r="H5" s="4">
+      <c r="H5" s="32">
         <v>43038</v>
       </c>
       <c r="I5" s="4"/>
@@ -2191,13 +2194,13 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="25.5">
-      <c r="A6" s="26">
+      <c r="A6" s="25">
         <v>46</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="20" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -2210,7 +2213,7 @@
         <v>23</v>
       </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="4">
+      <c r="H6" s="32">
         <v>43039</v>
       </c>
       <c r="I6" s="4"/>
@@ -2219,13 +2222,13 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="25.5">
-      <c r="A7" s="26">
+      <c r="A7" s="25">
         <v>46</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="20" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -2238,7 +2241,7 @@
         <v>27</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="4">
+      <c r="H7" s="32">
         <v>43033</v>
       </c>
       <c r="I7" s="4"/>
@@ -2247,13 +2250,13 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="25.5">
-      <c r="A8" s="26">
+      <c r="A8" s="25">
         <v>46</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -2268,7 +2271,7 @@
       <c r="G8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="32">
         <v>43034</v>
       </c>
       <c r="I8" s="4"/>
@@ -2277,13 +2280,13 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="25.5">
-      <c r="A9" s="26">
+      <c r="A9" s="25">
         <v>46</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="20" t="s">
         <v>33</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -2296,7 +2299,7 @@
         <v>36</v>
       </c>
       <c r="G9" s="6"/>
-      <c r="H9" s="4">
+      <c r="H9" s="32">
         <v>43032</v>
       </c>
       <c r="I9" s="4"/>
@@ -2305,13 +2308,13 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="25.5">
-      <c r="A10" s="26">
+      <c r="A10" s="25">
         <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="20" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="13" t="s">
@@ -2324,7 +2327,7 @@
         <v>40</v>
       </c>
       <c r="G10" s="11"/>
-      <c r="H10" s="4">
+      <c r="H10" s="32">
         <v>43032</v>
       </c>
       <c r="I10" s="4"/>
@@ -2333,13 +2336,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="25.5">
-      <c r="A11" s="26">
+      <c r="A11" s="25">
         <v>46</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="20" t="s">
         <v>41</v>
       </c>
       <c r="D11" s="13" t="s">
@@ -2352,7 +2355,7 @@
         <v>44</v>
       </c>
       <c r="G11" s="6"/>
-      <c r="H11" s="4">
+      <c r="H11" s="32">
         <v>43034</v>
       </c>
       <c r="I11" s="4"/>
@@ -2361,13 +2364,13 @@
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="26">
+      <c r="A12" s="25">
         <v>46</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="20" t="s">
         <v>45</v>
       </c>
       <c r="D12" s="11" t="s">
@@ -2380,7 +2383,7 @@
         <v>48</v>
       </c>
       <c r="G12" s="6"/>
-      <c r="H12" s="4">
+      <c r="H12" s="32">
         <v>43034</v>
       </c>
       <c r="I12" s="4"/>
@@ -2389,13 +2392,13 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A13" s="26">
+      <c r="A13" s="25">
         <v>46</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="20" t="s">
         <v>49</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -2408,7 +2411,7 @@
         <v>52</v>
       </c>
       <c r="G13" s="6"/>
-      <c r="H13" s="4">
+      <c r="H13" s="32">
         <v>43039</v>
       </c>
       <c r="I13" s="4"/>
@@ -2417,13 +2420,13 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="23.25" customHeight="1">
-      <c r="A14" s="26">
+      <c r="A14" s="25">
         <v>46</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="20" t="s">
         <v>53</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -2438,7 +2441,7 @@
       <c r="G14" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="32">
         <v>43033</v>
       </c>
       <c r="I14" s="4"/>
@@ -2447,13 +2450,13 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="25.5">
-      <c r="A15" s="26">
+      <c r="A15" s="25">
         <v>60</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="20" t="s">
         <v>58</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -2466,7 +2469,7 @@
         <v>61</v>
       </c>
       <c r="G15" s="6"/>
-      <c r="H15" s="4">
+      <c r="H15" s="32">
         <v>43034</v>
       </c>
       <c r="I15" s="4"/>
@@ -2475,13 +2478,13 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="26">
+      <c r="A16" s="25">
         <v>60</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="20" t="s">
         <v>62</v>
       </c>
       <c r="D16" s="6" t="s">
@@ -2494,7 +2497,7 @@
         <v>65</v>
       </c>
       <c r="G16" s="6"/>
-      <c r="H16" s="4">
+      <c r="H16" s="32">
         <v>43034</v>
       </c>
       <c r="I16" s="4"/>
@@ -2503,13 +2506,13 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="25.5">
-      <c r="A17" s="26">
+      <c r="A17" s="25">
         <v>60</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D17" s="6" t="s">
@@ -2524,7 +2527,7 @@
       <c r="G17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="32">
         <v>43034</v>
       </c>
       <c r="I17" s="4"/>
@@ -2533,13 +2536,13 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="25.5">
-      <c r="A18" s="26">
+      <c r="A18" s="25">
         <v>60</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="20" t="s">
         <v>69</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -2552,7 +2555,7 @@
         <v>60</v>
       </c>
       <c r="G18" s="6"/>
-      <c r="H18" s="4">
+      <c r="H18" s="32">
         <v>43039</v>
       </c>
       <c r="I18" s="4"/>
@@ -2561,13 +2564,13 @@
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="26">
+      <c r="A19" s="25">
         <v>60</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="20" t="s">
         <v>72</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -2580,7 +2583,7 @@
         <v>74</v>
       </c>
       <c r="G19" s="2"/>
-      <c r="H19" s="4">
+      <c r="H19" s="32">
         <v>43034</v>
       </c>
       <c r="I19" s="4"/>
@@ -2589,13 +2592,13 @@
       </c>
     </row>
     <row r="20" spans="1:10" s="1" customFormat="1" ht="25.5">
-      <c r="A20" s="26">
+      <c r="A20" s="25">
         <v>60</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="20" t="s">
         <v>58</v>
       </c>
       <c r="D20" s="6" t="s">
@@ -2608,7 +2611,7 @@
         <v>61</v>
       </c>
       <c r="G20" s="6"/>
-      <c r="H20" s="4">
+      <c r="H20" s="32">
         <v>43034</v>
       </c>
       <c r="I20" s="4"/>
@@ -2617,13 +2620,13 @@
       </c>
     </row>
     <row r="21" spans="1:10" s="1" customFormat="1">
-      <c r="A21" s="26">
+      <c r="A21" s="25">
         <v>60</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="20" t="s">
         <v>62</v>
       </c>
       <c r="D21" s="6" t="s">
@@ -2636,7 +2639,7 @@
         <v>65</v>
       </c>
       <c r="G21" s="6"/>
-      <c r="H21" s="4">
+      <c r="H21" s="32">
         <v>43034</v>
       </c>
       <c r="I21" s="4"/>
@@ -2645,13 +2648,13 @@
       </c>
     </row>
     <row r="22" spans="1:10" s="1" customFormat="1" ht="25.5">
-      <c r="A22" s="26">
+      <c r="A22" s="25">
         <v>60</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D22" s="6" t="s">
@@ -2666,7 +2669,7 @@
       <c r="G22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="32">
         <v>43034</v>
       </c>
       <c r="I22" s="4"/>
@@ -2675,13 +2678,13 @@
       </c>
     </row>
     <row r="23" spans="1:10" s="1" customFormat="1" ht="25.5">
-      <c r="A23" s="26">
+      <c r="A23" s="25">
         <v>60</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="20" t="s">
         <v>69</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -2694,7 +2697,7 @@
         <v>60</v>
       </c>
       <c r="G23" s="6"/>
-      <c r="H23" s="4">
+      <c r="H23" s="32">
         <v>43039</v>
       </c>
       <c r="I23" s="4"/>
@@ -2703,13 +2706,13 @@
       </c>
     </row>
     <row r="24" spans="1:10" s="1" customFormat="1">
-      <c r="A24" s="26">
+      <c r="A24" s="25">
         <v>60</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="20" t="s">
         <v>72</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -2722,7 +2725,7 @@
         <v>74</v>
       </c>
       <c r="G24" s="2"/>
-      <c r="H24" s="4">
+      <c r="H24" s="32">
         <v>43034</v>
       </c>
       <c r="I24" s="4"/>
@@ -2731,13 +2734,13 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="25.5">
-      <c r="A25" s="26">
+      <c r="A25" s="25">
         <v>64</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="20" t="s">
         <v>75</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -2750,7 +2753,7 @@
         <v>78</v>
       </c>
       <c r="G25" s="6"/>
-      <c r="H25" s="4">
+      <c r="H25" s="32">
         <v>43033</v>
       </c>
       <c r="I25" s="4"/>
@@ -2759,13 +2762,13 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="26">
+      <c r="A26" s="25">
         <v>64</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="20" t="s">
         <v>79</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -2778,7 +2781,7 @@
         <v>81</v>
       </c>
       <c r="G26" s="2"/>
-      <c r="H26" s="4">
+      <c r="H26" s="32">
         <v>43032</v>
       </c>
       <c r="I26" s="4"/>
@@ -2787,13 +2790,13 @@
       </c>
     </row>
     <row r="27" spans="1:10" s="1" customFormat="1" ht="25.5">
-      <c r="A27" s="26">
+      <c r="A27" s="25">
         <v>64</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="20" t="s">
         <v>75</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -2806,7 +2809,7 @@
         <v>78</v>
       </c>
       <c r="G27" s="6"/>
-      <c r="H27" s="4">
+      <c r="H27" s="32">
         <v>43033</v>
       </c>
       <c r="I27" s="4"/>
@@ -2815,13 +2818,13 @@
       </c>
     </row>
     <row r="28" spans="1:10" s="1" customFormat="1">
-      <c r="A28" s="26">
+      <c r="A28" s="25">
         <v>64</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="20" t="s">
         <v>79</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -2834,7 +2837,7 @@
         <v>81</v>
       </c>
       <c r="G28" s="2"/>
-      <c r="H28" s="4">
+      <c r="H28" s="32">
         <v>43032</v>
       </c>
       <c r="I28" s="4"/>
@@ -2843,13 +2846,13 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="25.5">
-      <c r="A29" s="26">
+      <c r="A29" s="25">
         <v>61</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="24" t="s">
         <v>82</v>
       </c>
       <c r="D29" s="6" t="s">
@@ -2862,7 +2865,7 @@
         <v>27</v>
       </c>
       <c r="G29" s="6"/>
-      <c r="H29" s="4">
+      <c r="H29" s="32">
         <v>43033</v>
       </c>
       <c r="I29" s="4"/>
@@ -2871,13 +2874,13 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="25.5">
-      <c r="A30" s="26">
+      <c r="A30" s="25">
         <v>61</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="20" t="s">
         <v>33</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -2890,7 +2893,7 @@
         <v>36</v>
       </c>
       <c r="G30" s="9"/>
-      <c r="H30" s="4">
+      <c r="H30" s="32">
         <v>43032</v>
       </c>
       <c r="I30" s="4"/>
@@ -2899,13 +2902,13 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="25.5">
-      <c r="A31" s="26">
+      <c r="A31" s="25">
         <v>61</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="19" t="s">
         <v>86</v>
       </c>
       <c r="D31" s="6" t="s">
@@ -2916,7 +2919,7 @@
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
-      <c r="H31" s="4">
+      <c r="H31" s="32">
         <v>43039</v>
       </c>
       <c r="I31" s="4"/>
@@ -2925,13 +2928,13 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="25.5">
-      <c r="A32" s="26">
+      <c r="A32" s="25">
         <v>61</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="20" t="s">
         <v>89</v>
       </c>
       <c r="D32" s="2" t="s">
@@ -2944,7 +2947,7 @@
         <v>92</v>
       </c>
       <c r="G32" s="6"/>
-      <c r="H32" s="4">
+      <c r="H32" s="32">
         <v>43033</v>
       </c>
       <c r="I32" s="4"/>
@@ -2953,13 +2956,13 @@
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="26">
+      <c r="A33" s="25">
         <v>61</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="20" t="s">
         <v>93</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -2974,7 +2977,7 @@
       <c r="G33" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33" s="32">
         <v>43033</v>
       </c>
       <c r="I33" s="4"/>
@@ -2983,13 +2986,13 @@
       </c>
     </row>
     <row r="34" spans="1:10" s="1" customFormat="1" ht="25.5">
-      <c r="A34" s="26">
+      <c r="A34" s="25">
         <v>61</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="24" t="s">
         <v>82</v>
       </c>
       <c r="D34" s="6" t="s">
@@ -3002,7 +3005,7 @@
         <v>27</v>
       </c>
       <c r="G34" s="6"/>
-      <c r="H34" s="4">
+      <c r="H34" s="32">
         <v>43033</v>
       </c>
       <c r="I34" s="4"/>
@@ -3011,13 +3014,13 @@
       </c>
     </row>
     <row r="35" spans="1:10" s="1" customFormat="1" ht="25.5">
-      <c r="A35" s="26">
+      <c r="A35" s="25">
         <v>61</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="20" t="s">
         <v>33</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -3030,7 +3033,7 @@
         <v>36</v>
       </c>
       <c r="G35" s="9"/>
-      <c r="H35" s="4">
+      <c r="H35" s="32">
         <v>43032</v>
       </c>
       <c r="I35" s="4"/>
@@ -3039,13 +3042,13 @@
       </c>
     </row>
     <row r="36" spans="1:10" s="1" customFormat="1" ht="25.5">
-      <c r="A36" s="26">
+      <c r="A36" s="25">
         <v>61</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="19" t="s">
         <v>86</v>
       </c>
       <c r="D36" s="6" t="s">
@@ -3056,7 +3059,7 @@
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
-      <c r="H36" s="4">
+      <c r="H36" s="32">
         <v>43039</v>
       </c>
       <c r="I36" s="4"/>
@@ -3065,13 +3068,13 @@
       </c>
     </row>
     <row r="37" spans="1:10" s="1" customFormat="1" ht="25.5">
-      <c r="A37" s="26">
+      <c r="A37" s="25">
         <v>61</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="20" t="s">
         <v>89</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -3084,7 +3087,7 @@
         <v>92</v>
       </c>
       <c r="G37" s="6"/>
-      <c r="H37" s="4">
+      <c r="H37" s="32">
         <v>43033</v>
       </c>
       <c r="I37" s="4"/>
@@ -3093,13 +3096,13 @@
       </c>
     </row>
     <row r="38" spans="1:10" s="1" customFormat="1">
-      <c r="A38" s="26">
+      <c r="A38" s="25">
         <v>61</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="C38" s="20" t="s">
         <v>93</v>
       </c>
       <c r="D38" s="2" t="s">
@@ -3114,7 +3117,7 @@
       <c r="G38" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H38" s="4">
+      <c r="H38" s="32">
         <v>43033</v>
       </c>
       <c r="I38" s="4"/>
@@ -3123,13 +3126,13 @@
       </c>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="26">
+      <c r="A39" s="25">
         <v>918</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="C39" s="20" t="s">
         <v>97</v>
       </c>
       <c r="D39" s="2" t="s">
@@ -3142,7 +3145,7 @@
         <v>99</v>
       </c>
       <c r="G39" s="2"/>
-      <c r="H39" s="4">
+      <c r="H39" s="32">
         <v>43033</v>
       </c>
       <c r="I39" s="4"/>
@@ -3151,13 +3154,13 @@
       </c>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="26">
+      <c r="A40" s="25">
         <v>918</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="19" t="s">
         <v>100</v>
       </c>
       <c r="D40" s="13" t="s">
@@ -3168,7 +3171,7 @@
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="6"/>
-      <c r="H40" s="4">
+      <c r="H40" s="32">
         <v>43039</v>
       </c>
       <c r="I40" s="4"/>
@@ -3177,13 +3180,13 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="25.5">
-      <c r="A41" s="26">
+      <c r="A41" s="25">
         <v>918</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="C41" s="20" t="s">
         <v>102</v>
       </c>
       <c r="D41" s="13" t="s">
@@ -3196,7 +3199,7 @@
         <v>105</v>
       </c>
       <c r="G41" s="6"/>
-      <c r="H41" s="4">
+      <c r="H41" s="32">
         <v>43034</v>
       </c>
       <c r="I41" s="4"/>
@@ -3205,13 +3208,13 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="25.5">
-      <c r="A42" s="26">
+      <c r="A42" s="25">
         <v>912</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C42" s="20" t="s">
         <v>106</v>
       </c>
       <c r="D42" s="6" t="s">
@@ -3224,7 +3227,7 @@
         <v>109</v>
       </c>
       <c r="G42" s="6"/>
-      <c r="H42" s="4">
+      <c r="H42" s="32">
         <v>43032</v>
       </c>
       <c r="I42" s="4"/>
@@ -3233,13 +3236,13 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="25.5">
-      <c r="A43" s="26">
+      <c r="A43" s="25">
         <v>912</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="C43" s="21" t="s">
+      <c r="C43" s="20" t="s">
         <v>37</v>
       </c>
       <c r="D43" s="13" t="s">
@@ -3254,7 +3257,7 @@
       <c r="G43" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H43" s="4">
+      <c r="H43" s="32">
         <v>43033</v>
       </c>
       <c r="I43" s="4"/>
@@ -3263,13 +3266,13 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="25.5">
-      <c r="A44" s="26">
+      <c r="A44" s="25">
         <v>912</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="C44" s="21" t="s">
+      <c r="C44" s="20" t="s">
         <v>110</v>
       </c>
       <c r="D44" s="2" t="s">
@@ -3282,7 +3285,7 @@
         <v>113</v>
       </c>
       <c r="G44" s="2"/>
-      <c r="H44" s="4">
+      <c r="H44" s="32">
         <v>43033</v>
       </c>
       <c r="I44" s="4"/>
@@ -3291,13 +3294,13 @@
       </c>
     </row>
     <row r="45" spans="1:10" s="1" customFormat="1" ht="25.5">
-      <c r="A45" s="26">
+      <c r="A45" s="25">
         <v>914</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="C45" s="21" t="s">
+      <c r="C45" s="20" t="s">
         <v>106</v>
       </c>
       <c r="D45" s="6" t="s">
@@ -3310,7 +3313,7 @@
         <v>109</v>
       </c>
       <c r="G45" s="6"/>
-      <c r="H45" s="4">
+      <c r="H45" s="32">
         <v>43032</v>
       </c>
       <c r="I45" s="4"/>
@@ -3319,13 +3322,13 @@
       </c>
     </row>
     <row r="46" spans="1:10" s="1" customFormat="1" ht="25.5">
-      <c r="A46" s="26">
+      <c r="A46" s="25">
         <v>914</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="C46" s="21" t="s">
+      <c r="C46" s="20" t="s">
         <v>37</v>
       </c>
       <c r="D46" s="13" t="s">
@@ -3340,7 +3343,7 @@
       <c r="G46" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H46" s="4">
+      <c r="H46" s="32">
         <v>43033</v>
       </c>
       <c r="I46" s="4"/>
@@ -3349,13 +3352,13 @@
       </c>
     </row>
     <row r="47" spans="1:10" s="1" customFormat="1" ht="25.5">
-      <c r="A47" s="26">
+      <c r="A47" s="25">
         <v>914</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="C47" s="20" t="s">
         <v>110</v>
       </c>
       <c r="D47" s="2" t="s">
@@ -3368,7 +3371,7 @@
         <v>113</v>
       </c>
       <c r="G47" s="2"/>
-      <c r="H47" s="4">
+      <c r="H47" s="32">
         <v>43033</v>
       </c>
       <c r="I47" s="4"/>
@@ -3377,13 +3380,13 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="25.5">
-      <c r="A48" s="26">
+      <c r="A48" s="25">
         <v>914</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="C48" s="20" t="s">
         <v>114</v>
       </c>
       <c r="D48" s="2" t="s">
@@ -3396,7 +3399,7 @@
         <v>92</v>
       </c>
       <c r="G48" s="6"/>
-      <c r="H48" s="4">
+      <c r="H48" s="32">
         <v>43033</v>
       </c>
       <c r="I48" s="4"/>
@@ -3405,13 +3408,13 @@
       </c>
     </row>
     <row r="49" spans="1:10" ht="25.5">
-      <c r="A49" s="26">
+      <c r="A49" s="25">
         <v>914</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="C49" s="21" t="s">
+      <c r="C49" s="20" t="s">
         <v>117</v>
       </c>
       <c r="D49" s="2" t="s">
@@ -3424,7 +3427,7 @@
         <v>120</v>
       </c>
       <c r="G49" s="2"/>
-      <c r="H49" s="4">
+      <c r="H49" s="32">
         <v>43034</v>
       </c>
       <c r="I49" s="4"/>
@@ -3433,13 +3436,13 @@
       </c>
     </row>
     <row r="50" spans="1:10" s="1" customFormat="1" ht="25.5">
-      <c r="A50" s="26">
+      <c r="A50" s="25">
         <v>912</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="C50" s="21" t="s">
+      <c r="C50" s="20" t="s">
         <v>106</v>
       </c>
       <c r="D50" s="6" t="s">
@@ -3452,7 +3455,7 @@
         <v>109</v>
       </c>
       <c r="G50" s="6"/>
-      <c r="H50" s="4">
+      <c r="H50" s="32">
         <v>43032</v>
       </c>
       <c r="I50" s="4"/>
@@ -3461,13 +3464,13 @@
       </c>
     </row>
     <row r="51" spans="1:10" s="1" customFormat="1" ht="25.5">
-      <c r="A51" s="26">
+      <c r="A51" s="25">
         <v>912</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="C51" s="21" t="s">
+      <c r="C51" s="20" t="s">
         <v>37</v>
       </c>
       <c r="D51" s="13" t="s">
@@ -3482,7 +3485,7 @@
       <c r="G51" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H51" s="4">
+      <c r="H51" s="32">
         <v>43033</v>
       </c>
       <c r="I51" s="4"/>
@@ -3491,13 +3494,13 @@
       </c>
     </row>
     <row r="52" spans="1:10" s="1" customFormat="1" ht="25.5">
-      <c r="A52" s="26">
+      <c r="A52" s="25">
         <v>912</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="C52" s="21" t="s">
+      <c r="C52" s="20" t="s">
         <v>110</v>
       </c>
       <c r="D52" s="2" t="s">
@@ -3510,7 +3513,7 @@
         <v>113</v>
       </c>
       <c r="G52" s="2"/>
-      <c r="H52" s="4">
+      <c r="H52" s="32">
         <v>43033</v>
       </c>
       <c r="I52" s="4"/>
@@ -3519,13 +3522,13 @@
       </c>
     </row>
     <row r="53" spans="1:10" s="1" customFormat="1" ht="25.5">
-      <c r="A53" s="26">
+      <c r="A53" s="25">
         <v>913</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="C53" s="21" t="s">
+      <c r="C53" s="20" t="s">
         <v>114</v>
       </c>
       <c r="D53" s="2" t="s">
@@ -3538,7 +3541,7 @@
         <v>92</v>
       </c>
       <c r="G53" s="6"/>
-      <c r="H53" s="4">
+      <c r="H53" s="32">
         <v>43033</v>
       </c>
       <c r="I53" s="4"/>
@@ -3547,13 +3550,13 @@
       </c>
     </row>
     <row r="54" spans="1:10" s="1" customFormat="1">
-      <c r="A54" s="26">
+      <c r="A54" s="25">
         <v>913</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="C54" s="21" t="s">
+      <c r="C54" s="20" t="s">
         <v>117</v>
       </c>
       <c r="D54" s="2" t="s">
@@ -3566,7 +3569,7 @@
         <v>120</v>
       </c>
       <c r="G54" s="2"/>
-      <c r="H54" s="4">
+      <c r="H54" s="32">
         <v>43034</v>
       </c>
       <c r="I54" s="4"/>
@@ -3575,13 +3578,13 @@
       </c>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="26">
+      <c r="A55" s="25">
         <v>913</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="C55" s="19" t="s">
         <v>121</v>
       </c>
       <c r="D55" s="6" t="s">
@@ -3594,7 +3597,7 @@
         <v>123</v>
       </c>
       <c r="G55" s="6"/>
-      <c r="H55" s="4">
+      <c r="H55" s="32">
         <v>43034</v>
       </c>
       <c r="I55" s="4"/>
@@ -3603,13 +3606,13 @@
       </c>
     </row>
     <row r="56" spans="1:10" ht="25.5">
-      <c r="A56" s="26">
+      <c r="A56" s="25">
         <v>913</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="C56" s="20" t="s">
+      <c r="C56" s="19" t="s">
         <v>124</v>
       </c>
       <c r="D56" s="6" t="s">
@@ -3621,8 +3624,8 @@
       <c r="F56" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G56" s="19"/>
-      <c r="H56" s="4">
+      <c r="G56" s="18"/>
+      <c r="H56" s="32">
         <v>43033</v>
       </c>
       <c r="I56" s="4"/>
@@ -3631,13 +3634,13 @@
       </c>
     </row>
     <row r="57" spans="1:10" ht="25.5">
-      <c r="A57" s="26">
+      <c r="A57" s="25">
         <v>913</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="C57" s="20" t="s">
+      <c r="C57" s="19" t="s">
         <v>126</v>
       </c>
       <c r="D57" s="2" t="s">
@@ -3650,7 +3653,7 @@
         <v>109</v>
       </c>
       <c r="G57" s="6"/>
-      <c r="H57" s="4">
+      <c r="H57" s="32">
         <v>43032</v>
       </c>
       <c r="I57" s="4"/>
@@ -3659,13 +3662,13 @@
       </c>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="26">
+      <c r="A58" s="25">
         <v>913</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="C58" s="21" t="s">
+      <c r="C58" s="20" t="s">
         <v>127</v>
       </c>
       <c r="D58" s="6" t="s">
@@ -3678,7 +3681,7 @@
         <v>128</v>
       </c>
       <c r="G58" s="2"/>
-      <c r="H58" s="4">
+      <c r="H58" s="32">
         <v>43032</v>
       </c>
       <c r="I58" s="4"/>
@@ -3687,13 +3690,13 @@
       </c>
     </row>
     <row r="59" spans="1:10" ht="25.5">
-      <c r="A59" s="26">
+      <c r="A59" s="25">
         <v>913</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="C59" s="20" t="s">
+      <c r="C59" s="19" t="s">
         <v>129</v>
       </c>
       <c r="D59" s="2" t="s">
@@ -3706,7 +3709,7 @@
         <v>132</v>
       </c>
       <c r="G59" s="2"/>
-      <c r="H59" s="4">
+      <c r="H59" s="32">
         <v>43034</v>
       </c>
       <c r="I59" s="4"/>
@@ -3715,13 +3718,13 @@
       </c>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="26">
+      <c r="A60" s="25">
         <v>913</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="C60" s="21" t="s">
+      <c r="C60" s="20" t="s">
         <v>133</v>
       </c>
       <c r="D60" s="6" t="s">
@@ -3734,7 +3737,7 @@
         <v>109</v>
       </c>
       <c r="G60" s="6"/>
-      <c r="H60" s="4">
+      <c r="H60" s="32">
         <v>43032</v>
       </c>
       <c r="I60" s="4"/>
@@ -3743,13 +3746,13 @@
       </c>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="26">
+      <c r="A61" s="25">
         <v>60</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="C61" s="21" t="s">
+      <c r="C61" s="20" t="s">
         <v>134</v>
       </c>
       <c r="D61" s="2" t="s">
@@ -3762,7 +3765,7 @@
         <v>74</v>
       </c>
       <c r="G61" s="6"/>
-      <c r="H61" s="4">
+      <c r="H61" s="32">
         <v>43034</v>
       </c>
       <c r="I61" s="4"/>
@@ -3771,13 +3774,13 @@
       </c>
     </row>
     <row r="62" spans="1:10" ht="38.25">
-      <c r="A62" s="26">
+      <c r="A62" s="25">
         <v>47</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C62" s="21" t="s">
+      <c r="C62" s="20" t="s">
         <v>135</v>
       </c>
       <c r="D62" s="6" t="s">
@@ -3790,7 +3793,7 @@
         <v>138</v>
       </c>
       <c r="G62" s="6"/>
-      <c r="H62" s="4">
+      <c r="H62" s="32">
         <v>43038</v>
       </c>
       <c r="I62" s="4"/>
@@ -3799,13 +3802,13 @@
       </c>
     </row>
     <row r="63" spans="1:10" ht="25.5">
-      <c r="A63" s="26">
+      <c r="A63" s="25">
         <v>47</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C63" s="21" t="s">
+      <c r="C63" s="20" t="s">
         <v>139</v>
       </c>
       <c r="D63" s="11" t="s">
@@ -3818,7 +3821,7 @@
         <v>141</v>
       </c>
       <c r="G63" s="6"/>
-      <c r="H63" s="4">
+      <c r="H63" s="32">
         <v>43033</v>
       </c>
       <c r="I63" s="4"/>
@@ -3827,13 +3830,13 @@
       </c>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="26">
+      <c r="A64" s="25">
         <v>47</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C64" s="21" t="s">
+      <c r="C64" s="20" t="s">
         <v>142</v>
       </c>
       <c r="D64" s="11" t="s">
@@ -3844,7 +3847,7 @@
       </c>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
-      <c r="H64" s="4">
+      <c r="H64" s="32">
         <v>43033</v>
       </c>
       <c r="I64" s="4"/>
@@ -3853,13 +3856,13 @@
       </c>
     </row>
     <row r="65" spans="1:10" ht="25.5">
-      <c r="A65" s="26">
+      <c r="A65" s="25">
         <v>47</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C65" s="21" t="s">
+      <c r="C65" s="20" t="s">
         <v>143</v>
       </c>
       <c r="D65" s="13" t="s">
@@ -3872,7 +3875,7 @@
         <v>47</v>
       </c>
       <c r="G65" s="6"/>
-      <c r="H65" s="4">
+      <c r="H65" s="32">
         <v>43038</v>
       </c>
       <c r="I65" s="4"/>
@@ -3881,13 +3884,13 @@
       </c>
     </row>
     <row r="66" spans="1:10" ht="25.5">
-      <c r="A66" s="26">
+      <c r="A66" s="25">
         <v>47</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C66" s="23" t="s">
+      <c r="C66" s="22" t="s">
         <v>145</v>
       </c>
       <c r="D66" s="13" t="s">
@@ -3900,7 +3903,7 @@
         <v>47</v>
       </c>
       <c r="G66" s="6"/>
-      <c r="H66" s="4">
+      <c r="H66" s="32">
         <v>43038</v>
       </c>
       <c r="I66" s="4"/>
@@ -3909,13 +3912,13 @@
       </c>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67" s="26">
+      <c r="A67" s="25">
         <v>47</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C67" s="21" t="s">
+      <c r="C67" s="20" t="s">
         <v>147</v>
       </c>
       <c r="D67" s="11" t="s">
@@ -3926,7 +3929,7 @@
       </c>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
-      <c r="H67" s="4">
+      <c r="H67" s="32">
         <v>43039</v>
       </c>
       <c r="I67" s="4"/>
@@ -3935,13 +3938,13 @@
       </c>
     </row>
     <row r="68" spans="1:10">
-      <c r="A68" s="26">
+      <c r="A68" s="25">
         <v>47</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C68" s="21" t="s">
+      <c r="C68" s="20" t="s">
         <v>149</v>
       </c>
       <c r="D68" s="11" t="s">
@@ -3954,7 +3957,7 @@
         <v>146</v>
       </c>
       <c r="G68" s="6"/>
-      <c r="H68" s="4">
+      <c r="H68" s="32">
         <v>43033</v>
       </c>
       <c r="I68" s="4"/>
@@ -3963,13 +3966,13 @@
       </c>
     </row>
     <row r="69" spans="1:10" ht="25.5">
-      <c r="A69" s="26">
+      <c r="A69" s="25">
         <v>45</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="C69" s="21" t="s">
+      <c r="C69" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D69" s="2" t="s">
@@ -3984,7 +3987,7 @@
       <c r="G69" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H69" s="4">
+      <c r="H69" s="32">
         <v>43034</v>
       </c>
       <c r="I69" s="4"/>
@@ -3993,16 +3996,16 @@
       </c>
     </row>
     <row r="70" spans="1:10" ht="25.5">
-      <c r="A70" s="26">
+      <c r="A70" s="25">
         <v>45</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="C70" s="21" t="s">
+      <c r="C70" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D70" s="17" t="s">
+      <c r="D70" s="16" t="s">
         <v>154</v>
       </c>
       <c r="E70" s="2" t="s">
@@ -4012,7 +4015,7 @@
         <v>36</v>
       </c>
       <c r="G70" s="9"/>
-      <c r="H70" s="4">
+      <c r="H70" s="32">
         <v>43032</v>
       </c>
       <c r="I70" s="4"/>
@@ -4021,13 +4024,13 @@
       </c>
     </row>
     <row r="71" spans="1:10">
-      <c r="A71" s="26">
+      <c r="A71" s="25">
         <v>45</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="C71" s="21" t="s">
+      <c r="C71" s="20" t="s">
         <v>155</v>
       </c>
       <c r="D71" s="2" t="s">
@@ -4038,7 +4041,7 @@
       </c>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
-      <c r="H71" s="4">
+      <c r="H71" s="32">
         <v>43033</v>
       </c>
       <c r="I71" s="4"/>
@@ -4047,13 +4050,13 @@
       </c>
     </row>
     <row r="72" spans="1:10" ht="25.5">
-      <c r="A72" s="26">
+      <c r="A72" s="25">
         <v>45</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="C72" s="21" t="s">
+      <c r="C72" s="20" t="s">
         <v>158</v>
       </c>
       <c r="D72" s="2" t="s">
@@ -4066,7 +4069,7 @@
         <v>160</v>
       </c>
       <c r="G72" s="6"/>
-      <c r="H72" s="4">
+      <c r="H72" s="32">
         <v>43033</v>
       </c>
       <c r="I72" s="4"/>
@@ -4075,13 +4078,13 @@
       </c>
     </row>
     <row r="73" spans="1:10" ht="25.5">
-      <c r="A73" s="26">
+      <c r="A73" s="25">
         <v>45</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="C73" s="21" t="s">
+      <c r="C73" s="20" t="s">
         <v>161</v>
       </c>
       <c r="D73" s="6" t="s">
@@ -4092,7 +4095,7 @@
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="6"/>
-      <c r="H73" s="4">
+      <c r="H73" s="32">
         <v>43033</v>
       </c>
       <c r="I73" s="4"/>
@@ -4101,13 +4104,13 @@
       </c>
     </row>
     <row r="74" spans="1:10" ht="25.5">
-      <c r="A74" s="26">
+      <c r="A74" s="25">
         <v>45</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="C74" s="21" t="s">
+      <c r="C74" s="20" t="s">
         <v>164</v>
       </c>
       <c r="D74" s="6" t="s">
@@ -4118,7 +4121,7 @@
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
-      <c r="H74" s="4">
+      <c r="H74" s="32">
         <v>43033</v>
       </c>
       <c r="I74" s="4"/>
@@ -4127,13 +4130,13 @@
       </c>
     </row>
     <row r="75" spans="1:10" ht="25.5">
-      <c r="A75" s="26">
+      <c r="A75" s="25">
         <v>45</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="C75" s="21" t="s">
+      <c r="C75" s="20" t="s">
         <v>166</v>
       </c>
       <c r="D75" s="2" t="s">
@@ -4146,7 +4149,7 @@
         <v>168</v>
       </c>
       <c r="G75" s="2"/>
-      <c r="H75" s="4">
+      <c r="H75" s="32">
         <v>43039</v>
       </c>
       <c r="I75" s="4"/>
@@ -4155,13 +4158,13 @@
       </c>
     </row>
     <row r="76" spans="1:10">
-      <c r="A76" s="26">
+      <c r="A76" s="25">
         <v>45</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="C76" s="21" t="s">
+      <c r="C76" s="20" t="s">
         <v>169</v>
       </c>
       <c r="D76" s="13" t="s">
@@ -4172,7 +4175,7 @@
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
-      <c r="H76" s="4">
+      <c r="H76" s="32">
         <v>43038</v>
       </c>
       <c r="I76" s="4"/>
@@ -4181,13 +4184,13 @@
       </c>
     </row>
     <row r="77" spans="1:10">
-      <c r="A77" s="26">
+      <c r="A77" s="25">
         <v>45</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="C77" s="21" t="s">
+      <c r="C77" s="20" t="s">
         <v>172</v>
       </c>
       <c r="D77" s="2" t="s">
@@ -4198,7 +4201,7 @@
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="6"/>
-      <c r="H77" s="4">
+      <c r="H77" s="32">
         <v>43033</v>
       </c>
       <c r="I77" s="4"/>
@@ -4207,13 +4210,13 @@
       </c>
     </row>
     <row r="78" spans="1:10">
-      <c r="A78" s="26">
+      <c r="A78" s="25">
         <v>45</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="C78" s="21" t="s">
+      <c r="C78" s="20" t="s">
         <v>174</v>
       </c>
       <c r="D78" s="2" t="s">
@@ -4224,7 +4227,7 @@
       </c>
       <c r="F78" s="6"/>
       <c r="G78" s="2"/>
-      <c r="H78" s="4">
+      <c r="H78" s="32">
         <v>43033</v>
       </c>
       <c r="I78" s="4"/>
@@ -4233,13 +4236,13 @@
       </c>
     </row>
     <row r="79" spans="1:10" ht="25.5">
-      <c r="A79" s="26">
+      <c r="A79" s="25">
         <v>45</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="C79" s="21" t="s">
+      <c r="C79" s="20" t="s">
         <v>177</v>
       </c>
       <c r="D79" s="6" t="s">
@@ -4250,7 +4253,7 @@
       </c>
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
-      <c r="H79" s="4">
+      <c r="H79" s="32">
         <v>43039</v>
       </c>
       <c r="I79" s="4"/>
@@ -4259,24 +4262,24 @@
       </c>
     </row>
     <row r="80" spans="1:10">
-      <c r="A80" s="26">
+      <c r="A80" s="25">
         <v>45</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="C80" s="21" t="s">
+      <c r="C80" s="20" t="s">
         <v>178</v>
       </c>
       <c r="D80" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="E80" s="17" t="s">
+      <c r="E80" s="16" t="s">
         <v>171</v>
       </c>
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
-      <c r="H80" s="4">
+      <c r="H80" s="32">
         <v>43033</v>
       </c>
       <c r="I80" s="4"/>
@@ -4285,13 +4288,13 @@
       </c>
     </row>
     <row r="81" spans="1:10" ht="25.5">
-      <c r="A81" s="26">
+      <c r="A81" s="25">
         <v>45</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="C81" s="21" t="s">
+      <c r="C81" s="20" t="s">
         <v>180</v>
       </c>
       <c r="D81" s="2" t="s">
@@ -4304,7 +4307,7 @@
         <v>182</v>
       </c>
       <c r="G81" s="6"/>
-      <c r="H81" s="4">
+      <c r="H81" s="32">
         <v>43034</v>
       </c>
       <c r="I81" s="4"/>
@@ -4313,13 +4316,13 @@
       </c>
     </row>
     <row r="82" spans="1:10" ht="25.5">
-      <c r="A82" s="26">
+      <c r="A82" s="25">
         <v>45</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="C82" s="21" t="s">
+      <c r="C82" s="20" t="s">
         <v>183</v>
       </c>
       <c r="D82" s="2" t="s">
@@ -4334,7 +4337,7 @@
       <c r="G82" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="H82" s="4">
+      <c r="H82" s="32">
         <v>43034</v>
       </c>
       <c r="I82" s="4"/>
@@ -4343,13 +4346,13 @@
       </c>
     </row>
     <row r="83" spans="1:10" ht="25.5">
-      <c r="A83" s="26">
+      <c r="A83" s="25">
         <v>45</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="C83" s="20" t="s">
+      <c r="C83" s="19" t="s">
         <v>185</v>
       </c>
       <c r="D83" s="2" t="s">
@@ -4362,7 +4365,7 @@
         <v>167</v>
       </c>
       <c r="G83" s="6"/>
-      <c r="H83" s="4">
+      <c r="H83" s="32">
         <v>43039</v>
       </c>
       <c r="I83" s="4"/>
@@ -4371,13 +4374,13 @@
       </c>
     </row>
     <row r="84" spans="1:10" ht="25.5">
-      <c r="A84" s="26">
+      <c r="A84" s="25">
         <v>45</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="C84" s="21" t="s">
+      <c r="C84" s="20" t="s">
         <v>187</v>
       </c>
       <c r="D84" s="2" t="s">
@@ -4390,7 +4393,7 @@
         <v>189</v>
       </c>
       <c r="G84" s="6"/>
-      <c r="H84" s="4">
+      <c r="H84" s="32">
         <v>43034</v>
       </c>
       <c r="I84" s="4"/>
@@ -4399,13 +4402,13 @@
       </c>
     </row>
     <row r="85" spans="1:10">
-      <c r="A85" s="26">
+      <c r="A85" s="25">
         <v>45</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="C85" s="20" t="s">
+      <c r="C85" s="19" t="s">
         <v>190</v>
       </c>
       <c r="D85" s="6" t="s">
@@ -4418,7 +4421,7 @@
         <v>168</v>
       </c>
       <c r="G85" s="6"/>
-      <c r="H85" s="4">
+      <c r="H85" s="32">
         <v>43034</v>
       </c>
       <c r="I85" s="4"/>
@@ -4427,13 +4430,13 @@
       </c>
     </row>
     <row r="86" spans="1:10">
-      <c r="A86" s="26">
+      <c r="A86" s="25">
         <v>45</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="C86" s="20" t="s">
+      <c r="C86" s="19" t="s">
         <v>191</v>
       </c>
       <c r="D86" s="11" t="s">
@@ -4446,7 +4449,7 @@
         <v>193</v>
       </c>
       <c r="G86" s="6"/>
-      <c r="H86" s="16" t="s">
+      <c r="H86" s="33" t="s">
         <v>194</v>
       </c>
       <c r="I86" s="4"/>
@@ -4455,13 +4458,13 @@
       </c>
     </row>
     <row r="87" spans="1:10">
-      <c r="A87" s="26">
+      <c r="A87" s="25">
         <v>45</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="C87" s="21" t="s">
+      <c r="C87" s="20" t="s">
         <v>49</v>
       </c>
       <c r="D87" s="2" t="s">
@@ -4474,7 +4477,7 @@
         <v>52</v>
       </c>
       <c r="G87" s="6"/>
-      <c r="H87" s="4">
+      <c r="H87" s="32">
         <v>43039</v>
       </c>
       <c r="I87" s="4"/>
@@ -4483,13 +4486,13 @@
       </c>
     </row>
     <row r="88" spans="1:10">
-      <c r="A88" s="26">
+      <c r="A88" s="25">
         <v>45</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="C88" s="21" t="s">
+      <c r="C88" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D88" s="2" t="s">
@@ -4500,7 +4503,7 @@
       </c>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
-      <c r="H88" s="4">
+      <c r="H88" s="32">
         <v>43033</v>
       </c>
       <c r="I88" s="4"/>
@@ -4509,13 +4512,13 @@
       </c>
     </row>
     <row r="89" spans="1:10">
-      <c r="A89" s="26">
+      <c r="A89" s="25">
         <v>45</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="C89" s="21" t="s">
+      <c r="C89" s="20" t="s">
         <v>197</v>
       </c>
       <c r="D89" s="6" t="s">
@@ -4526,7 +4529,7 @@
       </c>
       <c r="F89" s="13"/>
       <c r="G89" s="13"/>
-      <c r="H89" s="4">
+      <c r="H89" s="32">
         <v>43034</v>
       </c>
       <c r="I89" s="4"/>
@@ -4535,13 +4538,13 @@
       </c>
     </row>
     <row r="90" spans="1:10" ht="25.5">
-      <c r="A90" s="26">
+      <c r="A90" s="25">
         <v>74</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="C90" s="21" t="s">
+      <c r="C90" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D90" s="2" t="s">
@@ -4556,7 +4559,7 @@
       <c r="G90" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H90" s="4">
+      <c r="H90" s="32">
         <v>43034</v>
       </c>
       <c r="I90" s="4"/>
@@ -4565,13 +4568,13 @@
       </c>
     </row>
     <row r="91" spans="1:10" ht="25.5">
-      <c r="A91" s="26">
+      <c r="A91" s="25">
         <v>74</v>
       </c>
       <c r="B91" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="C91" s="21" t="s">
+      <c r="C91" s="20" t="s">
         <v>200</v>
       </c>
       <c r="D91" s="2" t="s">
@@ -4584,7 +4587,7 @@
         <v>203</v>
       </c>
       <c r="G91" s="6"/>
-      <c r="H91" s="4">
+      <c r="H91" s="32">
         <v>43034</v>
       </c>
       <c r="I91" s="4"/>
@@ -4593,13 +4596,13 @@
       </c>
     </row>
     <row r="92" spans="1:10" ht="25.5">
-      <c r="A92" s="26">
+      <c r="A92" s="25">
         <v>74</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="C92" s="21" t="s">
+      <c r="C92" s="20" t="s">
         <v>204</v>
       </c>
       <c r="D92" s="2" t="s">
@@ -4612,7 +4615,7 @@
         <v>203</v>
       </c>
       <c r="G92" s="6"/>
-      <c r="H92" s="4">
+      <c r="H92" s="32">
         <v>43034</v>
       </c>
       <c r="I92" s="4"/>
@@ -4621,13 +4624,13 @@
       </c>
     </row>
     <row r="93" spans="1:10">
-      <c r="A93" s="26">
+      <c r="A93" s="25">
         <v>74</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="C93" s="21" t="s">
+      <c r="C93" s="20" t="s">
         <v>205</v>
       </c>
       <c r="D93" s="2" t="s">
@@ -4638,7 +4641,7 @@
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
-      <c r="H93" s="4">
+      <c r="H93" s="32">
         <v>43033</v>
       </c>
       <c r="I93" s="4"/>
@@ -4647,13 +4650,13 @@
       </c>
     </row>
     <row r="94" spans="1:10" ht="25.5">
-      <c r="A94" s="26">
+      <c r="A94" s="25">
         <v>74</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="C94" s="20" t="s">
+      <c r="C94" s="19" t="s">
         <v>206</v>
       </c>
       <c r="D94" s="2" t="s">
@@ -4664,7 +4667,7 @@
       </c>
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
-      <c r="H94" s="4">
+      <c r="H94" s="32">
         <v>43034</v>
       </c>
       <c r="I94" s="4"/>
@@ -4673,13 +4676,13 @@
       </c>
     </row>
     <row r="95" spans="1:10" ht="25.5">
-      <c r="A95" s="26">
+      <c r="A95" s="25">
         <v>74</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="C95" s="21" t="s">
+      <c r="C95" s="20" t="s">
         <v>209</v>
       </c>
       <c r="D95" s="2" t="s">
@@ -4692,7 +4695,7 @@
         <v>35</v>
       </c>
       <c r="G95" s="6"/>
-      <c r="H95" s="4">
+      <c r="H95" s="32">
         <v>43034</v>
       </c>
       <c r="I95" s="4"/>
@@ -4701,13 +4704,13 @@
       </c>
     </row>
     <row r="96" spans="1:10" ht="25.5">
-      <c r="A96" s="26">
+      <c r="A96" s="25">
         <v>74</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="C96" s="24" t="s">
+      <c r="C96" s="23" t="s">
         <v>212</v>
       </c>
       <c r="D96" s="6" t="s">
@@ -4720,7 +4723,7 @@
         <v>214</v>
       </c>
       <c r="G96" s="6"/>
-      <c r="H96" s="4">
+      <c r="H96" s="32">
         <v>43034</v>
       </c>
       <c r="I96" s="4"/>
@@ -4729,13 +4732,13 @@
       </c>
     </row>
     <row r="97" spans="1:10" ht="25.5">
-      <c r="A97" s="26">
+      <c r="A97" s="25">
         <v>74</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="C97" s="21" t="s">
+      <c r="C97" s="20" t="s">
         <v>215</v>
       </c>
       <c r="D97" s="6" t="s">
@@ -4748,7 +4751,7 @@
         <v>218</v>
       </c>
       <c r="G97" s="6"/>
-      <c r="H97" s="4">
+      <c r="H97" s="32">
         <v>43039</v>
       </c>
       <c r="I97" s="4"/>
@@ -4757,13 +4760,13 @@
       </c>
     </row>
     <row r="98" spans="1:10" ht="25.5">
-      <c r="A98" s="26">
+      <c r="A98" s="25">
         <v>74</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="C98" s="21" t="s">
+      <c r="C98" s="20" t="s">
         <v>219</v>
       </c>
       <c r="D98" s="6" t="s">
@@ -4776,7 +4779,7 @@
         <v>221</v>
       </c>
       <c r="G98" s="6"/>
-      <c r="H98" s="4">
+      <c r="H98" s="32">
         <v>43033</v>
       </c>
       <c r="I98" s="4"/>
@@ -4785,13 +4788,13 @@
       </c>
     </row>
     <row r="99" spans="1:10" ht="25.5">
-      <c r="A99" s="26">
+      <c r="A99" s="25">
         <v>74</v>
       </c>
       <c r="B99" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="C99" s="21" t="s">
+      <c r="C99" s="20" t="s">
         <v>222</v>
       </c>
       <c r="D99" s="6" t="s">
@@ -4804,7 +4807,7 @@
         <v>224</v>
       </c>
       <c r="G99" s="6"/>
-      <c r="H99" s="4">
+      <c r="H99" s="32">
         <v>43034</v>
       </c>
       <c r="I99" s="4"/>
@@ -4813,13 +4816,13 @@
       </c>
     </row>
     <row r="100" spans="1:10" ht="25.5">
-      <c r="A100" s="26">
+      <c r="A100" s="25">
         <v>74</v>
       </c>
       <c r="B100" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="C100" s="21" t="s">
+      <c r="C100" s="20" t="s">
         <v>225</v>
       </c>
       <c r="D100" s="2" t="s">
@@ -4832,7 +4835,7 @@
         <v>92</v>
       </c>
       <c r="G100" s="6"/>
-      <c r="H100" s="4">
+      <c r="H100" s="32">
         <v>43033</v>
       </c>
       <c r="I100" s="4"/>
@@ -4841,13 +4844,13 @@
       </c>
     </row>
     <row r="101" spans="1:10" ht="25.5">
-      <c r="A101" s="26">
+      <c r="A101" s="25">
         <v>74</v>
       </c>
       <c r="B101" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="C101" s="21" t="s">
+      <c r="C101" s="20" t="s">
         <v>226</v>
       </c>
       <c r="D101" s="6" t="s">
@@ -4860,7 +4863,7 @@
         <v>202</v>
       </c>
       <c r="G101" s="6"/>
-      <c r="H101" s="4">
+      <c r="H101" s="32">
         <v>43039</v>
       </c>
       <c r="I101" s="4"/>
@@ -4869,13 +4872,13 @@
       </c>
     </row>
     <row r="102" spans="1:10" ht="25.5">
-      <c r="A102" s="26">
+      <c r="A102" s="25">
         <v>74</v>
       </c>
       <c r="B102" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="C102" s="23" t="s">
+      <c r="C102" s="22" t="s">
         <v>228</v>
       </c>
       <c r="D102" s="6" t="s">
@@ -4888,7 +4891,7 @@
         <v>202</v>
       </c>
       <c r="G102" s="11"/>
-      <c r="H102" s="4">
+      <c r="H102" s="32">
         <v>43039</v>
       </c>
       <c r="I102" s="4"/>
@@ -4897,13 +4900,13 @@
       </c>
     </row>
     <row r="103" spans="1:10" ht="25.5">
-      <c r="A103" s="26">
+      <c r="A103" s="25">
         <v>74</v>
       </c>
       <c r="B103" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="C103" s="21" t="s">
+      <c r="C103" s="20" t="s">
         <v>229</v>
       </c>
       <c r="D103" s="6" t="s">
@@ -4916,7 +4919,7 @@
         <v>214</v>
       </c>
       <c r="G103" s="6"/>
-      <c r="H103" s="4">
+      <c r="H103" s="32">
         <v>43038</v>
       </c>
       <c r="I103" s="4"/>
@@ -4925,13 +4928,13 @@
       </c>
     </row>
     <row r="104" spans="1:10" ht="25.5">
-      <c r="A104" s="26">
+      <c r="A104" s="25">
         <v>74</v>
       </c>
       <c r="B104" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="C104" s="21" t="s">
+      <c r="C104" s="20" t="s">
         <v>231</v>
       </c>
       <c r="D104" s="6" t="s">
@@ -4944,7 +4947,7 @@
         <v>214</v>
       </c>
       <c r="G104" s="6"/>
-      <c r="H104" s="4">
+      <c r="H104" s="32">
         <v>43039</v>
       </c>
       <c r="I104" s="4"/>
@@ -4953,13 +4956,13 @@
       </c>
     </row>
     <row r="105" spans="1:10" ht="25.5">
-      <c r="A105" s="26">
+      <c r="A105" s="25">
         <v>74</v>
       </c>
       <c r="B105" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="C105" s="21" t="s">
+      <c r="C105" s="20" t="s">
         <v>232</v>
       </c>
       <c r="D105" s="6" t="s">
@@ -4972,7 +4975,7 @@
         <v>214</v>
       </c>
       <c r="G105" s="6"/>
-      <c r="H105" s="4">
+      <c r="H105" s="32">
         <v>43039</v>
       </c>
       <c r="I105" s="4"/>
@@ -4981,13 +4984,13 @@
       </c>
     </row>
     <row r="106" spans="1:10" ht="25.5">
-      <c r="A106" s="26">
+      <c r="A106" s="25">
         <v>74</v>
       </c>
       <c r="B106" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="C106" s="21" t="s">
+      <c r="C106" s="20" t="s">
         <v>233</v>
       </c>
       <c r="D106" s="6" t="s">
@@ -5000,7 +5003,7 @@
         <v>214</v>
       </c>
       <c r="G106" s="6"/>
-      <c r="H106" s="4">
+      <c r="H106" s="32">
         <v>43039</v>
       </c>
       <c r="I106" s="4"/>
@@ -5009,13 +5012,13 @@
       </c>
     </row>
     <row r="107" spans="1:10" ht="25.5">
-      <c r="A107" s="26">
+      <c r="A107" s="25">
         <v>74</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="C107" s="21" t="s">
+      <c r="C107" s="20" t="s">
         <v>234</v>
       </c>
       <c r="D107" s="6" t="s">
@@ -5028,7 +5031,7 @@
         <v>230</v>
       </c>
       <c r="G107" s="11"/>
-      <c r="H107" s="4">
+      <c r="H107" s="32">
         <v>43033</v>
       </c>
       <c r="I107" s="4"/>
@@ -5037,13 +5040,13 @@
       </c>
     </row>
     <row r="108" spans="1:10">
-      <c r="A108" s="26">
+      <c r="A108" s="25">
         <v>74</v>
       </c>
       <c r="B108" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="C108" s="21" t="s">
+      <c r="C108" s="20" t="s">
         <v>49</v>
       </c>
       <c r="D108" s="2" t="s">
@@ -5056,7 +5059,7 @@
         <v>52</v>
       </c>
       <c r="G108" s="6"/>
-      <c r="H108" s="4">
+      <c r="H108" s="32">
         <v>43039</v>
       </c>
       <c r="I108" s="4"/>
@@ -5065,13 +5068,13 @@
       </c>
     </row>
     <row r="109" spans="1:10" ht="25.5">
-      <c r="A109" s="26">
+      <c r="A109" s="25">
         <v>74</v>
       </c>
       <c r="B109" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="C109" s="21" t="s">
+      <c r="C109" s="20" t="s">
         <v>235</v>
       </c>
       <c r="D109" s="6" t="s">
@@ -5084,7 +5087,7 @@
         <v>221</v>
       </c>
       <c r="G109" s="6"/>
-      <c r="H109" s="4">
+      <c r="H109" s="32">
         <v>43033</v>
       </c>
       <c r="I109" s="4"/>
@@ -5093,13 +5096,13 @@
       </c>
     </row>
     <row r="110" spans="1:10" ht="25.5">
-      <c r="A110" s="26">
+      <c r="A110" s="25">
         <v>74</v>
       </c>
       <c r="B110" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="C110" s="21" t="s">
+      <c r="C110" s="20" t="s">
         <v>237</v>
       </c>
       <c r="D110" s="13" t="s">
@@ -5112,7 +5115,7 @@
         <v>221</v>
       </c>
       <c r="G110" s="6"/>
-      <c r="H110" s="4">
+      <c r="H110" s="32">
         <v>43034</v>
       </c>
       <c r="I110" s="4"/>
@@ -5121,13 +5124,13 @@
       </c>
     </row>
     <row r="111" spans="1:10" ht="25.5">
-      <c r="A111" s="26">
+      <c r="A111" s="25">
         <v>74</v>
       </c>
       <c r="B111" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="C111" s="24" t="s">
+      <c r="C111" s="23" t="s">
         <v>238</v>
       </c>
       <c r="D111" s="6" t="s">
@@ -5140,7 +5143,7 @@
         <v>214</v>
       </c>
       <c r="G111" s="6"/>
-      <c r="H111" s="4">
+      <c r="H111" s="32">
         <v>43033</v>
       </c>
       <c r="I111" s="4"/>
@@ -5149,13 +5152,13 @@
       </c>
     </row>
     <row r="112" spans="1:10" s="1" customFormat="1" ht="25.5">
-      <c r="A112" s="26">
+      <c r="A112" s="25">
         <v>914</v>
       </c>
       <c r="B112" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="C112" s="20" t="s">
+      <c r="C112" s="19" t="s">
         <v>239</v>
       </c>
       <c r="D112" s="2" t="s">
@@ -5166,7 +5169,7 @@
       </c>
       <c r="F112" s="2"/>
       <c r="G112" s="6"/>
-      <c r="H112" s="4">
+      <c r="H112" s="32">
         <v>43038</v>
       </c>
       <c r="I112" s="4"/>
@@ -5175,13 +5178,13 @@
       </c>
     </row>
     <row r="113" spans="1:10" ht="25.5">
-      <c r="A113" s="26">
+      <c r="A113" s="25">
         <v>912</v>
       </c>
       <c r="B113" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="C113" s="20" t="s">
+      <c r="C113" s="19" t="s">
         <v>239</v>
       </c>
       <c r="D113" s="2" t="s">
@@ -5192,7 +5195,7 @@
       </c>
       <c r="F113" s="2"/>
       <c r="G113" s="6"/>
-      <c r="H113" s="4">
+      <c r="H113" s="32">
         <v>43038</v>
       </c>
       <c r="I113" s="4"/>
@@ -5201,13 +5204,13 @@
       </c>
     </row>
     <row r="114" spans="1:10">
-      <c r="A114" s="26">
+      <c r="A114" s="25">
         <v>3</v>
       </c>
       <c r="B114" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="C114" s="20" t="s">
+      <c r="C114" s="19" t="s">
         <v>241</v>
       </c>
       <c r="D114" s="6" t="s">
@@ -5218,7 +5221,7 @@
       </c>
       <c r="F114" s="6"/>
       <c r="G114" s="6"/>
-      <c r="H114" s="4">
+      <c r="H114" s="32">
         <v>43039</v>
       </c>
       <c r="I114" s="4"/>
@@ -5227,13 +5230,13 @@
       </c>
     </row>
     <row r="115" spans="1:10" ht="25.5">
-      <c r="A115" s="26">
+      <c r="A115" s="25">
         <v>3</v>
       </c>
       <c r="B115" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="C115" s="21" t="s">
+      <c r="C115" s="20" t="s">
         <v>243</v>
       </c>
       <c r="D115" s="2" t="s">
@@ -5246,7 +5249,7 @@
         <v>246</v>
       </c>
       <c r="G115" s="6"/>
-      <c r="H115" s="4">
+      <c r="H115" s="32">
         <v>43032</v>
       </c>
       <c r="I115" s="4"/>
@@ -5255,13 +5258,13 @@
       </c>
     </row>
     <row r="116" spans="1:10">
-      <c r="A116" s="26">
+      <c r="A116" s="25">
         <v>1</v>
       </c>
       <c r="B116" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="C116" s="21" t="s">
+      <c r="C116" s="20" t="s">
         <v>247</v>
       </c>
       <c r="D116" s="6" t="s">
@@ -5274,7 +5277,7 @@
         <v>163</v>
       </c>
       <c r="G116" s="6"/>
-      <c r="H116" s="4">
+      <c r="H116" s="32">
         <v>43039</v>
       </c>
       <c r="I116" s="4"/>
@@ -5283,13 +5286,13 @@
       </c>
     </row>
     <row r="117" spans="1:10" ht="25.5">
-      <c r="A117" s="26">
+      <c r="A117" s="25">
         <v>4</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="C117" s="21" t="s">
+      <c r="C117" s="20" t="s">
         <v>248</v>
       </c>
       <c r="D117" s="6" t="s">
@@ -5302,7 +5305,7 @@
         <v>250</v>
       </c>
       <c r="G117" s="2"/>
-      <c r="H117" s="4">
+      <c r="H117" s="32">
         <v>43033</v>
       </c>
       <c r="I117" s="4"/>
@@ -5311,13 +5314,13 @@
       </c>
     </row>
     <row r="118" spans="1:10" ht="25.5">
-      <c r="A118" s="26">
+      <c r="A118" s="25">
         <v>76</v>
       </c>
       <c r="B118" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="C118" s="21" t="s">
+      <c r="C118" s="20" t="s">
         <v>251</v>
       </c>
       <c r="D118" s="13" t="s">
@@ -5330,7 +5333,7 @@
         <v>230</v>
       </c>
       <c r="G118" s="15"/>
-      <c r="H118" s="4">
+      <c r="H118" s="32">
         <v>43033</v>
       </c>
       <c r="I118" s="4"/>
@@ -5339,24 +5342,24 @@
       </c>
     </row>
     <row r="119" spans="1:10" ht="24">
-      <c r="A119" s="26">
+      <c r="A119" s="25">
         <v>76</v>
       </c>
       <c r="B119" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="C119" s="24" t="s">
+      <c r="C119" s="23" t="s">
         <v>252</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E119" s="22" t="s">
+      <c r="E119" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="F119" s="22"/>
+      <c r="F119" s="21"/>
       <c r="G119" s="10"/>
-      <c r="H119" s="4">
+      <c r="H119" s="32">
         <v>43033</v>
       </c>
       <c r="I119" s="4"/>
@@ -5365,13 +5368,13 @@
       </c>
     </row>
     <row r="120" spans="1:10" ht="25.5">
-      <c r="A120" s="26">
+      <c r="A120" s="25">
         <v>76</v>
       </c>
       <c r="B120" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="C120" s="21" t="s">
+      <c r="C120" s="20" t="s">
         <v>254</v>
       </c>
       <c r="D120" s="6" t="s">
@@ -5384,7 +5387,7 @@
         <v>156</v>
       </c>
       <c r="G120" s="10"/>
-      <c r="H120" s="4">
+      <c r="H120" s="32">
         <v>43034</v>
       </c>
       <c r="I120" s="4"/>
@@ -5393,13 +5396,13 @@
       </c>
     </row>
     <row r="121" spans="1:10" ht="25.5">
-      <c r="A121" s="26">
+      <c r="A121" s="25">
         <v>76</v>
       </c>
       <c r="B121" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="C121" s="21" t="s">
+      <c r="C121" s="20" t="s">
         <v>256</v>
       </c>
       <c r="D121" s="13" t="s">
@@ -5408,7 +5411,7 @@
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
       <c r="G121" s="15"/>
-      <c r="H121" s="4">
+      <c r="H121" s="32">
         <v>43038</v>
       </c>
       <c r="I121" s="4"/>
@@ -5417,13 +5420,13 @@
       </c>
     </row>
     <row r="122" spans="1:10" ht="25.5">
-      <c r="A122" s="26">
+      <c r="A122" s="25">
         <v>76</v>
       </c>
       <c r="B122" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="C122" s="21" t="s">
+      <c r="C122" s="20" t="s">
         <v>258</v>
       </c>
       <c r="D122" s="13" t="s">
@@ -5436,7 +5439,7 @@
         <v>42</v>
       </c>
       <c r="G122" s="15"/>
-      <c r="H122" s="4">
+      <c r="H122" s="32">
         <v>43033</v>
       </c>
       <c r="I122" s="4"/>
@@ -5445,13 +5448,13 @@
       </c>
     </row>
     <row r="123" spans="1:10">
-      <c r="A123" s="26">
+      <c r="A123" s="25">
         <v>76</v>
       </c>
       <c r="B123" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="C123" s="21" t="s">
+      <c r="C123" s="20" t="s">
         <v>259</v>
       </c>
       <c r="D123" s="2" t="s">
@@ -5464,7 +5467,7 @@
         <v>146</v>
       </c>
       <c r="G123" s="10"/>
-      <c r="H123" s="4">
+      <c r="H123" s="32">
         <v>43034</v>
       </c>
       <c r="I123" s="4"/>
@@ -5473,13 +5476,13 @@
       </c>
     </row>
     <row r="124" spans="1:10" ht="25.5">
-      <c r="A124" s="26">
+      <c r="A124" s="25">
         <v>76</v>
       </c>
       <c r="B124" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="C124" s="21" t="s">
+      <c r="C124" s="20" t="s">
         <v>33</v>
       </c>
       <c r="D124" s="13" t="s">
@@ -5492,7 +5495,7 @@
         <v>36</v>
       </c>
       <c r="G124" s="2"/>
-      <c r="H124" s="4">
+      <c r="H124" s="32">
         <v>43032</v>
       </c>
       <c r="I124" s="4"/>
@@ -5501,13 +5504,13 @@
       </c>
     </row>
     <row r="125" spans="1:10" ht="25.5">
-      <c r="A125" s="26">
+      <c r="A125" s="25">
         <v>76</v>
       </c>
       <c r="B125" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="C125" s="21" t="s">
+      <c r="C125" s="20" t="s">
         <v>261</v>
       </c>
       <c r="D125" s="2" t="s">
@@ -5520,7 +5523,7 @@
         <v>262</v>
       </c>
       <c r="G125" s="10"/>
-      <c r="H125" s="4">
+      <c r="H125" s="32">
         <v>43033</v>
       </c>
       <c r="I125" s="4"/>
@@ -5529,13 +5532,13 @@
       </c>
     </row>
     <row r="126" spans="1:10" ht="25.5">
-      <c r="A126" s="26">
+      <c r="A126" s="25">
         <v>76</v>
       </c>
       <c r="B126" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="C126" s="21" t="s">
+      <c r="C126" s="20" t="s">
         <v>263</v>
       </c>
       <c r="D126" s="2" t="s">
@@ -5548,7 +5551,7 @@
         <v>230</v>
       </c>
       <c r="G126" s="10"/>
-      <c r="H126" s="4" t="s">
+      <c r="H126" s="32" t="s">
         <v>194</v>
       </c>
       <c r="I126" s="4"/>
@@ -5557,13 +5560,13 @@
       </c>
     </row>
     <row r="127" spans="1:10" ht="25.5">
-      <c r="A127" s="26">
+      <c r="A127" s="25">
         <v>76</v>
       </c>
       <c r="B127" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="C127" s="21" t="s">
+      <c r="C127" s="20" t="s">
         <v>265</v>
       </c>
       <c r="D127" s="2" t="s">
@@ -5576,7 +5579,7 @@
         <v>262</v>
       </c>
       <c r="G127" s="10"/>
-      <c r="H127" s="4" t="s">
+      <c r="H127" s="32" t="s">
         <v>194</v>
       </c>
       <c r="I127" s="4"/>
@@ -5585,13 +5588,13 @@
       </c>
     </row>
     <row r="128" spans="1:10" ht="51">
-      <c r="A128" s="26">
+      <c r="A128" s="25">
         <v>76</v>
       </c>
       <c r="B128" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="C128" s="21" t="s">
+      <c r="C128" s="20" t="s">
         <v>53</v>
       </c>
       <c r="D128" s="2" t="s">
@@ -5606,22 +5609,22 @@
       <c r="G128" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H128" s="4">
+      <c r="H128" s="32">
         <v>43033</v>
       </c>
       <c r="I128" s="4"/>
-      <c r="J128" s="18">
+      <c r="J128" s="17">
         <v>0.625</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="25.5">
-      <c r="A129" s="31">
+      <c r="A129" s="30">
         <v>23</v>
       </c>
       <c r="B129" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="C129" s="21" t="s">
+      <c r="C129" s="20" t="s">
         <v>33</v>
       </c>
       <c r="D129" s="2" t="s">
@@ -5634,7 +5637,7 @@
         <v>36</v>
       </c>
       <c r="G129" s="2"/>
-      <c r="H129" s="4">
+      <c r="H129" s="32">
         <v>43032</v>
       </c>
       <c r="I129" s="4">
@@ -5645,13 +5648,13 @@
       </c>
     </row>
     <row r="130" spans="1:10" ht="25.5">
-      <c r="A130" s="32">
+      <c r="A130" s="31">
         <v>23</v>
       </c>
       <c r="B130" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="C130" s="21" t="s">
+      <c r="C130" s="20" t="s">
         <v>291</v>
       </c>
       <c r="D130" s="2" t="s">
@@ -5664,7 +5667,7 @@
         <v>294</v>
       </c>
       <c r="G130" s="2"/>
-      <c r="H130" s="4">
+      <c r="H130" s="32">
         <v>43038</v>
       </c>
       <c r="I130" s="4"/>
@@ -5673,13 +5676,13 @@
       </c>
     </row>
     <row r="131" spans="1:10" ht="25.5">
-      <c r="A131" s="32">
+      <c r="A131" s="31">
         <v>23</v>
       </c>
       <c r="B131" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="C131" s="21" t="s">
+      <c r="C131" s="20" t="s">
         <v>53</v>
       </c>
       <c r="D131" s="2" t="s">
@@ -5694,7 +5697,7 @@
       <c r="G131" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="H131" s="4">
+      <c r="H131" s="32">
         <v>43033</v>
       </c>
       <c r="I131" s="2" t="s">
@@ -5705,7 +5708,7 @@
       </c>
     </row>
     <row r="132" spans="1:10" ht="25.5">
-      <c r="A132" s="32">
+      <c r="A132" s="31">
         <v>23</v>
       </c>
       <c r="B132" s="5" t="s">
@@ -5718,33 +5721,33 @@
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
-      <c r="H132" s="4"/>
+      <c r="H132" s="32"/>
       <c r="I132" s="2"/>
       <c r="J132" s="3"/>
     </row>
     <row r="133" spans="1:10" ht="25.5">
-      <c r="A133" s="32">
+      <c r="A133" s="31">
         <v>23</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="C133" s="21" t="s">
+      <c r="C133" s="20" t="s">
         <v>299</v>
       </c>
-      <c r="D133" s="27" t="s">
+      <c r="D133" s="26" t="s">
         <v>300</v>
       </c>
-      <c r="E133" s="28" t="s">
+      <c r="E133" s="27" t="s">
         <v>301</v>
       </c>
-      <c r="F133" s="27" t="s">
+      <c r="F133" s="26" t="s">
         <v>113</v>
       </c>
       <c r="G133" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="H133" s="4">
+      <c r="H133" s="32">
         <v>43033</v>
       </c>
       <c r="I133" s="4">
@@ -5755,13 +5758,13 @@
       </c>
     </row>
     <row r="134" spans="1:10" ht="25.5">
-      <c r="A134" s="32">
+      <c r="A134" s="31">
         <v>23</v>
       </c>
       <c r="B134" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="C134" s="21" t="s">
+      <c r="C134" s="20" t="s">
         <v>303</v>
       </c>
       <c r="D134" s="2" t="s">
@@ -5776,7 +5779,7 @@
       <c r="G134" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="H134" s="16">
+      <c r="H134" s="33">
         <v>43033</v>
       </c>
       <c r="I134" s="2" t="s">
@@ -5787,13 +5790,13 @@
       </c>
     </row>
     <row r="135" spans="1:10" ht="25.5">
-      <c r="A135" s="32">
+      <c r="A135" s="31">
         <v>23</v>
       </c>
       <c r="B135" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="C135" s="21" t="s">
+      <c r="C135" s="20" t="s">
         <v>308</v>
       </c>
       <c r="D135" s="2" t="s">
@@ -5806,7 +5809,7 @@
         <v>311</v>
       </c>
       <c r="G135" s="2"/>
-      <c r="H135" s="16">
+      <c r="H135" s="33">
         <v>43034</v>
       </c>
       <c r="I135" s="2" t="s">
@@ -5817,13 +5820,13 @@
       </c>
     </row>
     <row r="136" spans="1:10" ht="25.5">
-      <c r="A136" s="32">
+      <c r="A136" s="31">
         <v>23</v>
       </c>
       <c r="B136" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="C136" s="21" t="s">
+      <c r="C136" s="20" t="s">
         <v>312</v>
       </c>
       <c r="D136" s="2" t="s">
@@ -5836,7 +5839,7 @@
         <v>315</v>
       </c>
       <c r="G136" s="2"/>
-      <c r="H136" s="4">
+      <c r="H136" s="32">
         <v>43034</v>
       </c>
       <c r="I136" s="2" t="s">
@@ -5847,13 +5850,13 @@
       </c>
     </row>
     <row r="137" spans="1:10" ht="25.5">
-      <c r="A137" s="32">
+      <c r="A137" s="31">
         <v>23</v>
       </c>
       <c r="B137" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="C137" s="21" t="s">
+      <c r="C137" s="20" t="s">
         <v>316</v>
       </c>
       <c r="D137" s="2" t="s">
@@ -5866,7 +5869,7 @@
         <v>300</v>
       </c>
       <c r="G137" s="2"/>
-      <c r="H137" s="4">
+      <c r="H137" s="32">
         <v>43032</v>
       </c>
       <c r="I137" s="3">
@@ -5877,13 +5880,13 @@
       </c>
     </row>
     <row r="138" spans="1:10" ht="25.5">
-      <c r="A138" s="32">
+      <c r="A138" s="31">
         <v>23</v>
       </c>
       <c r="B138" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="C138" s="21" t="s">
+      <c r="C138" s="20" t="s">
         <v>318</v>
       </c>
       <c r="D138" s="2" t="s">
@@ -5896,7 +5899,7 @@
         <v>321</v>
       </c>
       <c r="G138" s="2"/>
-      <c r="H138" s="16">
+      <c r="H138" s="33">
         <v>43034</v>
       </c>
       <c r="I138" s="2" t="s">
@@ -5907,26 +5910,26 @@
       </c>
     </row>
     <row r="139" spans="1:10" ht="25.5">
-      <c r="A139" s="32">
+      <c r="A139" s="31">
         <v>23</v>
       </c>
       <c r="B139" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="C139" s="21" t="s">
+      <c r="C139" s="20" t="s">
         <v>322</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="E139" s="29" t="s">
+      <c r="E139" s="28" t="s">
         <v>323</v>
       </c>
-      <c r="F139" s="29" t="s">
+      <c r="F139" s="28" t="s">
         <v>324</v>
       </c>
       <c r="G139" s="13"/>
-      <c r="H139" s="4">
+      <c r="H139" s="32">
         <v>43038</v>
       </c>
       <c r="I139" s="2" t="s">
@@ -5937,13 +5940,13 @@
       </c>
     </row>
     <row r="140" spans="1:10" ht="25.5">
-      <c r="A140" s="32">
+      <c r="A140" s="31">
         <v>23</v>
       </c>
       <c r="B140" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="C140" s="21" t="s">
+      <c r="C140" s="20" t="s">
         <v>325</v>
       </c>
       <c r="D140" s="2" t="s">
@@ -5956,7 +5959,7 @@
         <v>328</v>
       </c>
       <c r="G140" s="6"/>
-      <c r="H140" s="4">
+      <c r="H140" s="32">
         <v>43032</v>
       </c>
       <c r="I140" s="3">
@@ -5967,13 +5970,13 @@
       </c>
     </row>
     <row r="141" spans="1:10" ht="25.5">
-      <c r="A141" s="32">
+      <c r="A141" s="31">
         <v>23</v>
       </c>
       <c r="B141" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="C141" s="21" t="s">
+      <c r="C141" s="20" t="s">
         <v>329</v>
       </c>
       <c r="D141" s="2" t="s">
@@ -5986,7 +5989,7 @@
         <v>331</v>
       </c>
       <c r="G141" s="6"/>
-      <c r="H141" s="4">
+      <c r="H141" s="32">
         <v>43032</v>
       </c>
       <c r="I141" s="3">
@@ -5997,13 +6000,13 @@
       </c>
     </row>
     <row r="142" spans="1:10" ht="25.5">
-      <c r="A142" s="32">
+      <c r="A142" s="31">
         <v>23</v>
       </c>
       <c r="B142" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="C142" s="21" t="s">
+      <c r="C142" s="20" t="s">
         <v>332</v>
       </c>
       <c r="D142" s="2" t="s">
@@ -6016,7 +6019,7 @@
         <v>320</v>
       </c>
       <c r="G142" s="11"/>
-      <c r="H142" s="4">
+      <c r="H142" s="32">
         <v>43033</v>
       </c>
       <c r="I142" s="2" t="s">
@@ -6027,13 +6030,13 @@
       </c>
     </row>
     <row r="143" spans="1:10" ht="25.5">
-      <c r="A143" s="32">
+      <c r="A143" s="31">
         <v>23</v>
       </c>
       <c r="B143" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="C143" s="21" t="s">
+      <c r="C143" s="20" t="s">
         <v>335</v>
       </c>
       <c r="D143" s="2" t="s">
@@ -6048,7 +6051,7 @@
       <c r="G143" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="H143" s="16">
+      <c r="H143" s="33">
         <v>43034</v>
       </c>
       <c r="I143" s="2" t="s">
@@ -6059,13 +6062,13 @@
       </c>
     </row>
     <row r="144" spans="1:10" ht="25.5">
-      <c r="A144" s="32">
+      <c r="A144" s="31">
         <v>23</v>
       </c>
       <c r="B144" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="C144" s="21" t="s">
+      <c r="C144" s="20" t="s">
         <v>339</v>
       </c>
       <c r="D144" s="2" t="s">
@@ -6078,7 +6081,7 @@
         <v>341</v>
       </c>
       <c r="G144" s="6"/>
-      <c r="H144" s="4">
+      <c r="H144" s="32">
         <v>43034</v>
       </c>
       <c r="I144" s="3">
@@ -6089,26 +6092,26 @@
       </c>
     </row>
     <row r="145" spans="1:10" ht="38.25">
-      <c r="A145" s="32">
+      <c r="A145" s="31">
         <v>23</v>
       </c>
       <c r="B145" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="C145" s="21" t="s">
+      <c r="C145" s="20" t="s">
         <v>342</v>
       </c>
       <c r="D145" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="E145" s="30" t="s">
+      <c r="E145" s="29" t="s">
         <v>344</v>
       </c>
       <c r="F145" s="6" t="s">
         <v>345</v>
       </c>
       <c r="G145" s="6"/>
-      <c r="H145" s="4">
+      <c r="H145" s="32">
         <v>43038</v>
       </c>
       <c r="I145" s="2" t="s">
@@ -6119,13 +6122,13 @@
       </c>
     </row>
     <row r="146" spans="1:10" ht="25.5">
-      <c r="A146" s="32">
+      <c r="A146" s="31">
         <v>23</v>
       </c>
       <c r="B146" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="C146" s="21" t="s">
+      <c r="C146" s="20" t="s">
         <v>346</v>
       </c>
       <c r="D146" s="2" t="s">
@@ -6138,7 +6141,7 @@
         <v>76</v>
       </c>
       <c r="G146" s="6"/>
-      <c r="H146" s="4">
+      <c r="H146" s="32">
         <v>43033</v>
       </c>
       <c r="I146" s="2" t="s">
@@ -6149,13 +6152,13 @@
       </c>
     </row>
     <row r="147" spans="1:10" ht="25.5">
-      <c r="A147" s="32">
+      <c r="A147" s="31">
         <v>23</v>
       </c>
       <c r="B147" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="C147" s="21" t="s">
+      <c r="C147" s="20" t="s">
         <v>348</v>
       </c>
       <c r="D147" s="2" t="s">
@@ -6166,7 +6169,7 @@
       </c>
       <c r="F147" s="2"/>
       <c r="G147" s="6"/>
-      <c r="H147" s="16">
+      <c r="H147" s="33">
         <v>43033</v>
       </c>
       <c r="I147" s="2" t="s">
@@ -6177,13 +6180,13 @@
       </c>
     </row>
     <row r="148" spans="1:10" ht="25.5">
-      <c r="A148" s="32">
+      <c r="A148" s="31">
         <v>23</v>
       </c>
       <c r="B148" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="C148" s="21" t="s">
+      <c r="C148" s="20" t="s">
         <v>351</v>
       </c>
       <c r="D148" s="2" t="s">
@@ -6198,7 +6201,7 @@
       <c r="G148" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="H148" s="4">
+      <c r="H148" s="32">
         <v>43038</v>
       </c>
       <c r="I148" s="2" t="s">
@@ -6209,13 +6212,13 @@
       </c>
     </row>
     <row r="149" spans="1:10" ht="25.5">
-      <c r="A149" s="32">
+      <c r="A149" s="31">
         <v>23</v>
       </c>
       <c r="B149" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="C149" s="21" t="s">
+      <c r="C149" s="20" t="s">
         <v>356</v>
       </c>
       <c r="D149" s="2" t="s">
@@ -6228,7 +6231,7 @@
         <v>354</v>
       </c>
       <c r="G149" s="2"/>
-      <c r="H149" s="4">
+      <c r="H149" s="32">
         <v>43039</v>
       </c>
       <c r="I149" s="2" t="s">
@@ -6239,13 +6242,13 @@
       </c>
     </row>
     <row r="150" spans="1:10">
-      <c r="A150" s="32">
+      <c r="A150" s="31">
         <v>49</v>
       </c>
       <c r="B150" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="C150" s="21" t="s">
+      <c r="C150" s="20" t="s">
         <v>358</v>
       </c>
       <c r="D150" s="6" t="s">
@@ -6256,7 +6259,7 @@
       </c>
       <c r="F150" s="2"/>
       <c r="G150" s="6"/>
-      <c r="H150" s="4">
+      <c r="H150" s="32">
         <v>43039</v>
       </c>
       <c r="I150" s="2" t="s">
@@ -6267,13 +6270,13 @@
       </c>
     </row>
     <row r="151" spans="1:10">
-      <c r="A151" s="32">
+      <c r="A151" s="31">
         <v>49</v>
       </c>
       <c r="B151" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="C151" s="21" t="s">
+      <c r="C151" s="20" t="s">
         <v>361</v>
       </c>
       <c r="D151" s="2" t="s">
@@ -6284,7 +6287,7 @@
       </c>
       <c r="F151" s="6"/>
       <c r="G151" s="6"/>
-      <c r="H151" s="4">
+      <c r="H151" s="32">
         <v>43034</v>
       </c>
       <c r="I151" s="2" t="s">
@@ -6295,13 +6298,13 @@
       </c>
     </row>
     <row r="152" spans="1:10">
-      <c r="A152" s="32">
+      <c r="A152" s="31">
         <v>49</v>
       </c>
       <c r="B152" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="C152" s="21" t="s">
+      <c r="C152" s="20" t="s">
         <v>363</v>
       </c>
       <c r="D152" s="2" t="s">
@@ -6312,7 +6315,7 @@
       </c>
       <c r="F152" s="2"/>
       <c r="G152" s="6"/>
-      <c r="H152" s="4">
+      <c r="H152" s="32">
         <v>43034</v>
       </c>
       <c r="I152" s="2" t="s">
@@ -6323,13 +6326,13 @@
       </c>
     </row>
     <row r="153" spans="1:10">
-      <c r="A153" s="32">
+      <c r="A153" s="31">
         <v>49</v>
       </c>
       <c r="B153" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="C153" s="21" t="s">
+      <c r="C153" s="20" t="s">
         <v>365</v>
       </c>
       <c r="D153" s="2" t="s">
@@ -6342,7 +6345,7 @@
         <v>368</v>
       </c>
       <c r="G153" s="6"/>
-      <c r="H153" s="4">
+      <c r="H153" s="32">
         <v>43033</v>
       </c>
       <c r="I153" s="2"/>
@@ -6351,13 +6354,13 @@
       </c>
     </row>
     <row r="154" spans="1:10">
-      <c r="A154" s="32">
+      <c r="A154" s="31">
         <v>49</v>
       </c>
       <c r="B154" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="C154" s="21" t="s">
+      <c r="C154" s="20" t="s">
         <v>369</v>
       </c>
       <c r="D154" s="2" t="s">
@@ -6370,7 +6373,7 @@
         <v>367</v>
       </c>
       <c r="G154" s="6"/>
-      <c r="H154" s="4">
+      <c r="H154" s="32">
         <v>43033</v>
       </c>
       <c r="I154" s="2" t="s">
@@ -6381,13 +6384,13 @@
       </c>
     </row>
     <row r="155" spans="1:10" ht="25.5">
-      <c r="A155" s="32">
+      <c r="A155" s="31">
         <v>49</v>
       </c>
       <c r="B155" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="C155" s="21" t="s">
+      <c r="C155" s="20" t="s">
         <v>370</v>
       </c>
       <c r="D155" s="2" t="s">
@@ -6400,7 +6403,7 @@
         <v>371</v>
       </c>
       <c r="G155" s="6"/>
-      <c r="H155" s="4">
+      <c r="H155" s="32">
         <v>43033</v>
       </c>
       <c r="I155" s="2" t="s">
@@ -6411,13 +6414,13 @@
       </c>
     </row>
     <row r="156" spans="1:10" ht="25.5">
-      <c r="A156" s="32">
+      <c r="A156" s="31">
         <v>69</v>
       </c>
       <c r="B156" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="C156" s="21" t="s">
+      <c r="C156" s="20" t="s">
         <v>372</v>
       </c>
       <c r="D156" s="2" t="s">
@@ -6430,7 +6433,7 @@
         <v>300</v>
       </c>
       <c r="G156" s="1"/>
-      <c r="H156" s="16">
+      <c r="H156" s="33">
         <v>43034</v>
       </c>
       <c r="I156" s="2" t="s">
@@ -6441,13 +6444,13 @@
       </c>
     </row>
     <row r="157" spans="1:10">
-      <c r="A157" s="32">
+      <c r="A157" s="31">
         <v>69</v>
       </c>
       <c r="B157" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="C157" s="21" t="s">
+      <c r="C157" s="20" t="s">
         <v>375</v>
       </c>
       <c r="D157" s="2" t="s">
@@ -6458,7 +6461,7 @@
       </c>
       <c r="F157" s="6"/>
       <c r="G157" s="2"/>
-      <c r="H157" s="4">
+      <c r="H157" s="32">
         <v>43032</v>
       </c>
       <c r="I157" s="2" t="s">
@@ -6469,13 +6472,13 @@
       </c>
     </row>
     <row r="158" spans="1:10">
-      <c r="A158" s="32">
+      <c r="A158" s="31">
         <v>69</v>
       </c>
       <c r="B158" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="C158" s="21" t="s">
+      <c r="C158" s="20" t="s">
         <v>377</v>
       </c>
       <c r="D158" s="2" t="s">
@@ -6488,7 +6491,7 @@
         <v>379</v>
       </c>
       <c r="G158" s="6"/>
-      <c r="H158" s="4">
+      <c r="H158" s="32">
         <v>43032</v>
       </c>
       <c r="I158" s="2" t="s">
@@ -6499,13 +6502,13 @@
       </c>
     </row>
     <row r="159" spans="1:10" ht="25.5">
-      <c r="A159" s="32">
+      <c r="A159" s="31">
         <v>69</v>
       </c>
       <c r="B159" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="C159" s="21" t="s">
+      <c r="C159" s="20" t="s">
         <v>380</v>
       </c>
       <c r="D159" s="13" t="s">
@@ -6516,7 +6519,7 @@
       </c>
       <c r="F159" s="11"/>
       <c r="G159" s="13"/>
-      <c r="H159" s="4" t="s">
+      <c r="H159" s="32" t="s">
         <v>194</v>
       </c>
       <c r="I159" s="13" t="s">
@@ -6527,13 +6530,13 @@
       </c>
     </row>
     <row r="160" spans="1:10" ht="25.5">
-      <c r="A160" s="32">
+      <c r="A160" s="31">
         <v>69</v>
       </c>
       <c r="B160" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="C160" s="21" t="s">
+      <c r="C160" s="20" t="s">
         <v>383</v>
       </c>
       <c r="D160" s="13" t="s">
@@ -6544,7 +6547,7 @@
       </c>
       <c r="F160" s="11"/>
       <c r="G160" s="11"/>
-      <c r="H160" s="4" t="s">
+      <c r="H160" s="32" t="s">
         <v>194</v>
       </c>
       <c r="I160" s="13" t="s">
@@ -6555,13 +6558,13 @@
       </c>
     </row>
     <row r="161" spans="1:10">
-      <c r="A161" s="32">
+      <c r="A161" s="31">
         <v>69</v>
       </c>
       <c r="B161" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="C161" s="21" t="s">
+      <c r="C161" s="20" t="s">
         <v>384</v>
       </c>
       <c r="D161" s="2" t="s">
@@ -6574,7 +6577,7 @@
         <v>385</v>
       </c>
       <c r="G161" s="6"/>
-      <c r="H161" s="4">
+      <c r="H161" s="32">
         <v>43033</v>
       </c>
       <c r="I161" s="2" t="s">
@@ -6585,13 +6588,13 @@
       </c>
     </row>
     <row r="162" spans="1:10" ht="25.5">
-      <c r="A162" s="32">
+      <c r="A162" s="31">
         <v>16</v>
       </c>
       <c r="B162" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="C162" s="21" t="s">
+      <c r="C162" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D162" s="2" t="s">
@@ -6606,7 +6609,7 @@
       <c r="G162" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="H162" s="4">
+      <c r="H162" s="32">
         <v>43034</v>
       </c>
       <c r="I162" s="2" t="s">
@@ -6617,13 +6620,13 @@
       </c>
     </row>
     <row r="163" spans="1:10" ht="25.5">
-      <c r="A163" s="32">
+      <c r="A163" s="31">
         <v>16</v>
       </c>
       <c r="B163" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="C163" s="21" t="s">
+      <c r="C163" s="20" t="s">
         <v>387</v>
       </c>
       <c r="D163" s="2" t="s">
@@ -6638,7 +6641,7 @@
       <c r="G163" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="H163" s="4">
+      <c r="H163" s="32">
         <v>43033</v>
       </c>
       <c r="I163" s="2" t="s">
@@ -6649,13 +6652,13 @@
       </c>
     </row>
     <row r="164" spans="1:10" ht="51">
-      <c r="A164" s="32">
+      <c r="A164" s="31">
         <v>16</v>
       </c>
       <c r="B164" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="C164" s="24" t="s">
+      <c r="C164" s="23" t="s">
         <v>391</v>
       </c>
       <c r="D164" s="6" t="s">
@@ -6670,7 +6673,7 @@
       <c r="G164" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="H164" s="4">
+      <c r="H164" s="32">
         <v>43038</v>
       </c>
       <c r="I164" s="2" t="s">
@@ -6681,13 +6684,13 @@
       </c>
     </row>
     <row r="165" spans="1:10" ht="25.5">
-      <c r="A165" s="31">
+      <c r="A165" s="30">
         <v>72</v>
       </c>
       <c r="B165" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="C165" s="21" t="s">
+      <c r="C165" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D165" s="2" t="s">
@@ -6702,7 +6705,7 @@
       <c r="G165" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="H165" s="4">
+      <c r="H165" s="32">
         <v>43034</v>
       </c>
       <c r="I165" s="2" t="s">
@@ -6713,13 +6716,13 @@
       </c>
     </row>
     <row r="166" spans="1:10" ht="25.5">
-      <c r="A166" s="32">
+      <c r="A166" s="31">
         <v>72</v>
       </c>
       <c r="B166" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="C166" s="21" t="s">
+      <c r="C166" s="20" t="s">
         <v>387</v>
       </c>
       <c r="D166" s="2" t="s">
@@ -6734,7 +6737,7 @@
       <c r="G166" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="H166" s="4">
+      <c r="H166" s="32">
         <v>43033</v>
       </c>
       <c r="I166" s="2" t="s">
@@ -6745,13 +6748,13 @@
       </c>
     </row>
     <row r="167" spans="1:10" ht="51">
-      <c r="A167" s="32">
+      <c r="A167" s="31">
         <v>72</v>
       </c>
       <c r="B167" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="C167" s="24" t="s">
+      <c r="C167" s="23" t="s">
         <v>391</v>
       </c>
       <c r="D167" s="6" t="s">
@@ -6766,7 +6769,7 @@
       <c r="G167" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="H167" s="4">
+      <c r="H167" s="32">
         <v>43038</v>
       </c>
       <c r="I167" s="2" t="s">
